--- a/output.xlsx
+++ b/output.xlsx
@@ -6647,7 +6647,19 @@
     <t xml:space="preserve">Walapane Mandaramnuwara</t>
   </si>
   <si>
-    <t xml:space="preserve">foo</t>
+    <t xml:space="preserve">Jamal Uddin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aslam Zaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johurul Huque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahima Khatun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gita Rani Saha</t>
   </si>
 </sst>
 </file>
@@ -7259,7 +7271,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" t="s" s="7">
-        <v>2204</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7430,7 +7442,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s" s="23">
-        <v>35</v>
+        <v>2204</v>
       </c>
       <c r="I4" s="24">
         <v>36639</v>
@@ -7510,7 +7522,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s" s="23">
-        <v>48</v>
+        <v>2205</v>
       </c>
       <c r="I5" s="30">
         <v>37315</v>
@@ -7590,7 +7602,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s" s="23">
-        <v>51</v>
+        <v>2206</v>
       </c>
       <c r="I6" s="30">
         <v>39613</v>
@@ -7670,7 +7682,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s" s="23">
-        <v>57</v>
+        <v>2207</v>
       </c>
       <c r="I7" s="30">
         <v>37737</v>
@@ -7750,7 +7762,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s" s="23">
-        <v>61</v>
+        <v>2208</v>
       </c>
       <c r="I8" s="30">
         <v>38737</v>
